--- a/inst/extdata/socio_economic/no_stochast/socio_economic_input.xlsx
+++ b/inst/extdata/socio_economic/no_stochast/socio_economic_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattj\Dropbox\Projects\EN2691 CEPopMod\main\CEMPRA\inst\extdata\socio_economic\no_stochast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816E82B5-42A6-47CC-B7EE-7CC917301B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190056C8-0801-44C1-B969-0A0FB612BD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="699" firstSheet="1" activeTab="8" xr2:uid="{1AD852B4-9C7D-474C-A280-4470E2592A52}"/>
+    <workbookView xWindow="22932" yWindow="516" windowWidth="23256" windowHeight="12456" tabRatio="699" firstSheet="1" activeTab="8" xr2:uid="{1AD852B4-9C7D-474C-A280-4470E2592A52}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Actions" sheetId="1" r:id="rId1"/>
@@ -1670,16 +1670,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.25</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.25</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.25</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.25</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,16 +1816,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3021,16 +3021,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-0.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3191,16 +3191,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.5</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.5</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8491,7 +8491,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8577,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>1.2</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>1.1000000000000001</v>
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H6" s="9">
         <v>3000</v>
@@ -8709,7 +8709,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H7" s="9">
         <v>20000</v>
@@ -9284,7 +9284,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9338,10 +9338,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.25</v>
+        <v>-4</v>
       </c>
       <c r="E3">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -9356,10 +9356,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>-0.25</v>
+        <v>-4</v>
       </c>
       <c r="E4">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -9374,10 +9374,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.25</v>
+        <v>-4</v>
       </c>
       <c r="E5">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -9391,10 +9391,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>-0.25</v>
+        <v>-4</v>
       </c>
       <c r="E6">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9537,7 +9537,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9591,10 +9591,10 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>-0.5</v>
+      </c>
+      <c r="E3">
         <v>0</v>
-      </c>
-      <c r="E3">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -9608,10 +9608,10 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
         <v>0</v>
-      </c>
-      <c r="E4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -9625,10 +9625,10 @@
         <v>0</v>
       </c>
       <c r="D5">
+        <v>-3</v>
+      </c>
+      <c r="E5">
         <v>-0.5</v>
-      </c>
-      <c r="E5">
-        <v>-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -9642,10 +9642,10 @@
         <v>0</v>
       </c>
       <c r="D6">
+        <v>-3</v>
+      </c>
+      <c r="E6">
         <v>-0.5</v>
-      </c>
-      <c r="E6">
-        <v>-3</v>
       </c>
     </row>
   </sheetData>
@@ -9787,7 +9787,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9841,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E3">
         <v>100</v>
